--- a/ağırlıklar_2024.xlsx
+++ b/ağırlıklar_2024.xlsx
@@ -447,787 +447,787 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antep Fıstığı</t>
+          <t>Pirinç</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1359671230252507</v>
+        <v>1.012931846764295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Armut</t>
+          <t>Buğday Unu</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.788155279505884</v>
+        <v>2.035180117158901</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ay Çekirdeği</t>
+          <t>Bebek Sütü (Toz Karışım)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2468834801639713</v>
+        <v>0.5006457887226217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ayran</t>
+          <t>Bulgur</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.201394117304871</v>
+        <v>0.5951794412602041</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ayva</t>
+          <t>Ekmek</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1105942218352606</v>
+        <v>10.02726194818333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ayçiçek Yağı</t>
+          <t>Bisküvi</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4792539697581025</v>
+        <v>1.102537385469402</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Badem İçi</t>
+          <t>Kraker</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1508038864817608</v>
+        <v>0.2263129088432906</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Baharat</t>
+          <t>Gofret</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.09610559448544048</v>
+        <v>0.5890578385677661</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Baklava</t>
+          <t>Pasta</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1214139274224506</v>
+        <v>1.100018117271942</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bal</t>
+          <t>Kek</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.08853233455444046</v>
+        <v>0.3089076394892897</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Balık</t>
+          <t>Baklava</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1875377124580209</v>
+        <v>1.369982149236788</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bebek Sütü (Toz Karışım)</t>
+          <t>Ekmek Hamuru (Yufka)</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1444624259284108</v>
+        <v>0.4013293310130913</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Beyaz Lahana</t>
+          <t>Makarna</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1013959270760905</v>
+        <v>0.7825443476084014</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Beyaz Peynir</t>
+          <t>Şehriye</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9.119300000000045</v>
+        <v>0.1098053333273457</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bisküvi</t>
+          <t>Tahıl Gevreği</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3098000000000016</v>
+        <v>0.1231444439346055</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bitki ve Meyve Çayı (Poşet)</t>
+          <t>Dana Eti</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2564297295047713</v>
+        <v>8.498893338311237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bulgur</t>
+          <t>Kuzu Eti</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.050059475484895</v>
+        <v>3.614264101949058</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Buğday Unu</t>
+          <t>Tavuk Eti</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.047540207287435</v>
+        <v>5.539115408378469</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ceviz İçi</t>
+          <t>Sakatat</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.1738349988587809</v>
+        <v>0.226650256306227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cipsler</t>
+          <t>Sucuk</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.317504239252277</v>
+        <v>1.696915828016567</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Dana Eti</t>
+          <t>Sosis</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5365799285832527</v>
+        <v>0.1856013504241867</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Dereotu</t>
+          <t>Salam</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.3488514210285817</v>
+        <v>0.3279837047928835</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Dolmalık Biber</t>
+          <t>Hazır Et Yemekleri</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.01490901955572007</v>
+        <v>0.3989770433566796</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Domates</t>
+          <t>Balık</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.192509019555731</v>
+        <v>1.48751433879628</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Dondurma</t>
+          <t>Konserve Balık</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4710000000000024</v>
+        <v>0.1063829698770766</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ekmek</t>
+          <t>Süt</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8.776300000000044</v>
+        <v>2.944592331186707</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ekmek Hamuru (Yufka)</t>
+          <t>Yoğurt</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.1519000000000008</v>
+        <v>2.319648771560849</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Elma</t>
+          <t>Hazır Sütlü Tatlılar</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.4175873803413822</v>
+        <v>0.1122307324493974</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fındık Ezmesi</t>
+          <t>Beyaz Peynir</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.2671126196586113</v>
+        <v>3.272176848448026</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fındık İçi</t>
+          <t>Kaşar Peyniri</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1221000000000006</v>
+        <v>1.533179410650308</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Gazoz Meyveli</t>
+          <t>Tulum Peyniri</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.2425551927373112</v>
+        <v>0.6323587098002308</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Gofret</t>
+          <t>Krem Peynir</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.6483199253743633</v>
+        <v>0.2465991159107618</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Havuç</t>
+          <t>Yumurta</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.778872732383834</v>
+        <v>3.211332164336069</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hazır Et Yemekleri</t>
+          <t>Tereyağı (Kahvaltılık)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.611352778691298</v>
+        <v>1.31080204120519</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hazır Kahve</t>
+          <t>Margarin</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.2262993708131912</v>
+        <v>0.4826129389873122</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Hazır Pakette Toz Tatlılar (Puding)</t>
+          <t>Zeytinyağı</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.4677219736586125</v>
+        <v>1.660187764192147</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Hazır Sütlü Tatlılar</t>
+          <t>Ayçiçek Yağı</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.2502904112510413</v>
+        <v>3.4377586311512</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hazır Çorbalar</t>
+          <t>Portakal</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.397787615090342</v>
+        <v>0.6214908866502634</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ispanak</t>
+          <t>Üzüm</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.1359230854696907</v>
+        <v>0.5283485943633851</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Kabak</t>
+          <t>Armut</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.8383573621110942</v>
+        <v>0.2031631046298308</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Kabak Çekirdeği</t>
+          <t>Ayva</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.1338732258572307</v>
+        <v>0.07537385518031715</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Kabartma Maddeleri</t>
+          <t>Çilek</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.7470089223938838</v>
+        <v>0.2812459409255432</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Kahve</t>
+          <t>Elma</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.2955596803615715</v>
+        <v>0.8494495410179095</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Kakao</t>
+          <t>Karpuz</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.192366351082651</v>
+        <v>0.8727490185095136</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Kakaolu Toz İçecekler</t>
+          <t>Kavun</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.388383949198892</v>
+        <v>0.4011694240475382</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Karnabahar</t>
+          <t>Kivi</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.1532371985222508</v>
+        <v>0.06027648478512181</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Karpuz</t>
+          <t>Limon</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.1290633050205807</v>
+        <v>0.4259457222364063</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Kavun</t>
+          <t>Mandalina</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.1711269199821209</v>
+        <v>0.5885473670178654</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Kağıtlı Şeker</t>
+          <t>Muz</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3.679800000000018</v>
+        <v>1.164816038365769</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Kaşar Peyniri</t>
+          <t>Nar</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.1126804928594706</v>
+        <v>0.1038847789702615</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Kek</t>
+          <t>Şeftali</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.7854195071405241</v>
+        <v>0.277480834538878</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Kesme Şeker</t>
+          <t>Badem İçi</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.2894000000000014</v>
+        <v>0.1862572346166151</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ketçap</t>
+          <t>Ceviz İçi</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.4281000000000023</v>
+        <v>0.8534876767455873</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Kivi</t>
+          <t>Fındık İçi</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.068400000000005</v>
+        <v>0.3106899949960601</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Kola</t>
+          <t>Antep Fıstığı</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.2428205947084313</v>
+        <v>0.2074966657171494</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Konserve Balık</t>
+          <t>Yer Fıstığı</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.6285801885978932</v>
+        <v>0.4035142638333895</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Konserveler</t>
+          <t>Leblebi</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.529400889447978</v>
+        <v>0.1683675131567403</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Kraker</t>
+          <t>Ay Çekirdeği</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3.268398327245706</v>
+        <v>0.7621392370283737</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Krem Peynir</t>
+          <t>Kabak Çekirdeği</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.206700000000006</v>
+        <v>0.1441936196550766</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Kuru Fasulye</t>
+          <t>Kuru Üzüm</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.187905091330641</v>
+        <v>0.1510534001041844</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1235,311 +1235,311 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.0976700332483305</v>
+        <v>0.1490035404917223</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Kuru Soğan</t>
+          <t>Çarliston Biber</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.5586124820024029</v>
+        <v>0.1823094324091105</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Kuru Üzüm</t>
+          <t>Dolmalık Biber</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.1680957696297209</v>
+        <v>0.1726022294369322</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Kuzu Eti</t>
+          <t>Sivri Biber</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.01731662378890009</v>
+        <v>0.6104606877475249</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Kırmızı Lahana</t>
+          <t>Dereotu</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.2945984244308415</v>
+        <v>0.04563833916287433</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Kırmızı Turp</t>
+          <t>Domates</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.197101575569156</v>
+        <v>2.664288404043482</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Kıvırcık</t>
+          <t>Taze Fasulye</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2.509200000000013</v>
+        <v>0.4074528855698936</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Leblebi</t>
+          <t>Havuç</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2.962435433479535</v>
+        <v>0.2629177720535113</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Limon</t>
+          <t>Ispanak</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.184864566520476</v>
+        <v>0.241698137181445</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Lokum</t>
+          <t>Kabak</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5.684100000000028</v>
+        <v>0.201137906784693</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Maden Suyu ve Sodası</t>
+          <t>Karnabahar</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.080600000000006</v>
+        <v>0.1592816710664655</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Makarna</t>
+          <t>Kuru Soğan</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.9208179987865847</v>
+        <v>0.893928526838755</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Mandalina</t>
+          <t>Beyaz Lahana</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.3526143986942118</v>
+        <v>0.1413649805107886</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Mantar</t>
+          <t>Kırmızı Lahana</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.9441174762781848</v>
+        <v>0.055109265198361</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Margarin</t>
+          <t>Mantar</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.4725378818162024</v>
+        <v>0.197178069774182</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Maydanoz</t>
+          <t>Kıvırcık</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.1467423129489807</v>
+        <v>0.2625678910338592</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Mayonez</t>
+          <t>Maydanoz</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.2745315623985013</v>
+        <v>0.2022904507758835</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mercimek</t>
+          <t>Nane</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.1752532367389309</v>
+        <v>0.0309873232830031</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Meyve Suyu</t>
+          <t>Patlıcan</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.3488492923075418</v>
+        <v>0.5777501105723839</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Muz</t>
+          <t>Pırasa</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.1316449425537907</v>
+        <v>0.1421188843776053</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Nane</t>
+          <t>Roka</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.6928593444189336</v>
+        <v>0.05744732703387767</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Nar</t>
+          <t>Salatalık</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.6599158247865334</v>
+        <v>1.06119085748634</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Nohut</t>
+          <t>Sarımsak</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1.236184496134446</v>
+        <v>0.2020680983552363</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Pasta</t>
+          <t>Kırmızı Turp</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.5997170521320532</v>
+        <v>0.05770723149003258</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1547,566 +1547,566 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.4973141800050725</v>
+        <v>1.180416092405884</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Patlıcan</t>
+          <t>Kuru Fasulye</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.6840434493916036</v>
+        <v>0.4022559015741565</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Pekmez</t>
+          <t>Nohut</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.2756508599993114</v>
+        <v>0.254758697734856</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Pirinç</t>
+          <t>Mercimek</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.2558921940531813</v>
+        <v>0.4721902601424284</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Portakal</t>
+          <t>Konserveler</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.2461849910810012</v>
+        <v>0.09431595705480286</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Pırasa</t>
+          <t>Turşu</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.1192211008069506</v>
+        <v>0.1105717789789175</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Reçel</t>
+          <t>Salça</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2.737871165687564</v>
+        <v>0.6468893186254386</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Roka</t>
+          <t>Zeytin</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.4810356472139724</v>
+        <v>1.479369364932905</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Sakatat</t>
+          <t>Cipsler</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.3365005336975817</v>
+        <v>0.5163365116159737</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Sakız</t>
+          <t>Toz Şeker</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.1312899931341007</v>
+        <v>1.286626734686825</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Salam</t>
+          <t>Kesme Şeker</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.2747206684287614</v>
+        <v>0.2002268784994198</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Salatalık</t>
+          <t>Reçel</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.2328644327105412</v>
+        <v>0.1394772724324169</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Salça</t>
+          <t>Bal</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.9675112884828351</v>
+        <v>0.6004197211864897</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Sarımsak</t>
+          <t>Pekmez</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.3152808988255216</v>
+        <v>0.2099030088138079</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Sirke</t>
+          <t>Tahin Helvası</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.1286920268424307</v>
+        <v>0.2297123305147275</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Sivri Biber</t>
+          <t>Fındık Ezmesi</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.2157016460216811</v>
+        <v>0.05912386297298652</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Sosis</t>
+          <t>Çikolata Tablet</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1.134773619130416</v>
+        <v>0.7549798365698694</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Soğuk Çay</t>
+          <t>Çikolata Krem</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.2149477421548611</v>
+        <v>0.4544943671929233</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Su</t>
+          <t>Lokum</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.6513328722164634</v>
+        <v>0.1908539884829144</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Sucuk</t>
+          <t>Sakız</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.1045700849270706</v>
+        <v>0.1140458685276609</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Süt</t>
+          <t>Kağıtlı Şeker</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.2758732124199614</v>
+        <v>0.4387588387821195</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Tahin</t>
+          <t>Dondurma</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.3361506526779317</v>
+        <v>0.6182756121746907</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Tahin Helvası</t>
+          <t>Baharat</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.1310300886779507</v>
+        <v>0.4548841972546711</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Tahıl Gevreği</t>
+          <t>Tuz</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.2707608314182514</v>
+        <v>0.1264341139783284</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Tavuk Eti</t>
+          <t>Kabartma Maddeleri</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1.321000000000007</v>
+        <v>0.0717358219820101</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Taze Fasulye</t>
+          <t>Sirke</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.004496464691663104</v>
+        <v>0.09704415491902538</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Tereyağı (Kahvaltılık)</t>
+          <t>Ketçap</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.01710353530833009</v>
+        <v>0.08622444933183307</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Toz Şeker</t>
+          <t>Mayonez</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.2287440063420412</v>
+        <v>0.0641625620510107</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Tulum Peyniri</t>
+          <t>Tahin</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.3232776588796217</v>
+        <v>0.1631679399545908</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Turşu</t>
+          <t>Hazır Çorbalar</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1.763278334778329</v>
+        <v>0.1200926534249803</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Tuz</t>
+          <t>Hazır Pakette Toz Tatlılar (Puding)</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2.739700000000014</v>
+        <v>0.07702615457266024</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Yer Fıstığı</t>
+          <t>Kahve</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2.331605276623362</v>
+        <v>0.4616949426612039</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Yoğurt</t>
+          <t>Hazır Kahve</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.2090947233766411</v>
+        <v>0.3112201819784333</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Yumurta</t>
+          <t>Çay</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.5435322588710227</v>
+        <v>2.158344150613357</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Zeytin</t>
+          <t>Bitki ve Meyve Çayı (Poşet)</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.2188192886165611</v>
+        <v>0.03583359736664758</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Zeytinyağı</t>
+          <t>Kakao</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.2956274085718115</v>
+        <v>0.0177891306605138</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Çarliston Biber</t>
+          <t>Kakaolu Toz İçecekler</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.5592677872818229</v>
+        <v>0.00518206004383996</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Çay</t>
+          <t>Su</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.8597532566587743</v>
+        <v>1.18704473433773</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Çikolata Krem</t>
+          <t>Maden Suyu ve Sodası</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.4252575617091021</v>
+        <v>0.2845415831994129</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Çikolata Tablet</t>
+          <t>Gazoz Meyveli</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.2118818687766011</v>
+        <v>0.2049930946932411</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Çilek</t>
+          <t>Kola</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.3542642231453018</v>
+        <v>0.7462648940351488</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Üzüm</t>
+          <t>Soğuk Çay</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1.723196346368989</v>
+        <v>0.09407673755451737</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Şeftali</t>
+          <t>Ayran</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.2112000719062911</v>
+        <v>0.1595037318341391</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Şehriye</t>
+          <t>Meyve Suyu</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1.297599928093707</v>
+        <v>0.4684792529425769</v>
       </c>
     </row>
   </sheetData>
